--- a/DMS/Templates/StoreScouting_Export.xlsx
+++ b/DMS/Templates/StoreScouting_Export.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rang Dong\DMS.BE\DMS\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60D5DD6B-C66B-4B5F-B965-53193AA8C3C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDE608D7-C5BE-4224-88F5-4B5FDC62A6AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3180" yWindow="2835" windowWidth="21600" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>CÔNG TY CỔ PHẦN BÓNG ĐÈN PHÍCH NƯỚC RẠNG ĐÔNG</t>
   </si>
@@ -51,9 +51,6 @@
     <t>Trạng thái</t>
   </si>
   <si>
-    <t>Đơn vị quản lý</t>
-  </si>
-  <si>
     <t>BÁO CÁO CỬA HÀNG CẮM CỜ</t>
   </si>
   <si>
@@ -75,34 +72,34 @@
     <t>{{End}}</t>
   </si>
   <si>
-    <t>{{StoreScoutings.STT}}</t>
-  </si>
-  <si>
-    <t>{{StoreScoutings.Organization.Name}}</t>
-  </si>
-  <si>
-    <t>{{StoreScoutings.Creator.Username}}</t>
-  </si>
-  <si>
-    <t>{{StoreScoutings.Creator.DisplayName}}</t>
-  </si>
-  <si>
-    <t>{{StoreScoutings.CreatedAtDisplay}}</t>
-  </si>
-  <si>
-    <t>{{StoreScoutings.Name}}</t>
-  </si>
-  <si>
-    <t>{{StoreScoutings.Latitude}}</t>
-  </si>
-  <si>
-    <t>{{StoreScoutings.Longitude}}</t>
-  </si>
-  <si>
-    <t>{{StoreScoutings.StoreScoutingStatus.Name}}</t>
-  </si>
-  <si>
-    <t>{{StoreScoutings.Address}}</t>
+    <t>{{Exports.OrganizationName}}</t>
+  </si>
+  <si>
+    <t>{{Exports.StoreScoutings.STT}}</t>
+  </si>
+  <si>
+    <t>{{Exports.StoreScoutings.Creator.Username}}</t>
+  </si>
+  <si>
+    <t>{{Exports.StoreScoutings.Creator.DisplayName}}</t>
+  </si>
+  <si>
+    <t>{{Exports.StoreScoutings.CreatedAtDisplay}}</t>
+  </si>
+  <si>
+    <t>{{Exports.StoreScoutings.Name}}</t>
+  </si>
+  <si>
+    <t>{{Exports.StoreScoutings.Address}}</t>
+  </si>
+  <si>
+    <t>{{Exports.StoreScoutings.Longitude}}</t>
+  </si>
+  <si>
+    <t>{{Exports.StoreScoutings.Latitude}}</t>
+  </si>
+  <si>
+    <t>{{Exports.StoreScoutings.StoreScoutingStatus.Name}}</t>
   </si>
 </sst>
 </file>
@@ -153,7 +150,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -176,11 +173,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -197,6 +231,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -478,66 +521,64 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="2"/>
-    <col min="2" max="2" width="17.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="19.85546875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="23" style="2" customWidth="1"/>
-    <col min="7" max="7" width="25.5703125" style="2" customWidth="1"/>
-    <col min="8" max="10" width="14.5703125" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="2"/>
+    <col min="2" max="2" width="13.28515625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="23" style="2" customWidth="1"/>
+    <col min="6" max="6" width="25.5703125" style="2" customWidth="1"/>
+    <col min="7" max="9" width="14.5703125" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="3"/>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D5" s="2" t="s">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="D5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>15</v>
-      </c>
     </row>
-    <row r="7" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>10</v>
@@ -549,45 +590,55 @@
         <v>12</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="J7" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="11"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B9" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C9" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D9" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E9" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F9" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="H8" s="8" t="s">
+      <c r="G9" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="I8" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="J8" s="5" t="s">
+      <c r="I9" s="5" t="s">
         <v>24</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A8:I8"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/DMS/Templates/StoreScouting_Export.xlsx
+++ b/DMS/Templates/StoreScouting_Export.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rang Dong\DMS.BE\DMS\Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\dotNet\DMS\DMS.BE\DMS\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDE608D7-C5BE-4224-88F5-4B5FDC62A6AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1845A83-8FDF-49D7-B3F5-464D1DF0C55B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3180" yWindow="2835" windowWidth="21600" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Đại lý cắm cờ" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
